--- a/data/trans_orig/IP07C10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{635B3FDA-59EC-4889-A960-F5E3EFE44BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A1A5B8A-80AB-445A-800D-84ADABE6E81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{9DC414AF-1649-4325-ACE6-F5D8FF4AB0BF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7AE09A6-BBD4-40E0-B8F8-1FC776481E05}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="636">
   <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2007 (Tasa respuesta: 42,16%)</t>
   </si>
@@ -70,1864 +70,1882 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 41,78%)</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2015 (Tasa respuesta: 44,59%)</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
   </si>
   <si>
     <t>45,75%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 41,78%)</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2015 (Tasa respuesta: 44,59%)</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
+    <t>0,34%</t>
   </si>
 </sst>
 </file>
@@ -1938,7 +1956,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2034,39 +2052,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2118,7 +2136,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2229,13 +2247,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2244,6 +2255,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2308,19 +2326,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DDF073-FF8D-493B-80C8-4674AF84A6A6}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6FB926-892F-4696-B99E-B8AC6E0D8B86}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2437,10 +2475,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6408</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2452,91 +2490,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>4531</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7">
         <v>14</v>
       </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>10938</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>3591</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6271</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
         <v>13</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>9861</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -2545,13 +2583,13 @@
         <v>2482</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -2560,13 +2598,13 @@
         <v>2541</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -2575,91 +2613,91 @@
         <v>5022</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>3591</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>6271</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>9861</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>6408</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>4531</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -2668,22 +2706,22 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>10938</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,106 +2783,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>19381</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>710</v>
+        <v>14852</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="N10" s="7">
-        <v>710</v>
+        <v>34233</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>22155</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>635</v>
+        <v>18828</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="N11" s="7">
-        <v>635</v>
+        <v>40983</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>21</v>
@@ -2853,13 +2891,13 @@
         <v>13355</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -2868,13 +2906,13 @@
         <v>8519</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -2883,112 +2921,112 @@
         <v>21874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>22155</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>18828</v>
+        <v>635</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>40983</v>
+        <v>635</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>19381</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="H14" s="7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>14852</v>
+        <v>710</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>34233</v>
+        <v>710</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>84</v>
@@ -3053,106 +3091,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>38600</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>36117</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>74718</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D17" s="7">
-        <v>1249</v>
+        <v>35293</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I17" s="7">
-        <v>630</v>
+        <v>44213</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="N17" s="7">
-        <v>1879</v>
+        <v>79506</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>24</v>
@@ -3161,13 +3199,13 @@
         <v>15584</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -3176,13 +3214,13 @@
         <v>15743</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -3191,112 +3229,112 @@
         <v>31328</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>35293</v>
+        <v>1249</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>44213</v>
+        <v>630</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>79506</v>
+        <v>1879</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>38600</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="H20" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>36117</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>74718</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>120</v>
@@ -3361,106 +3399,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>18970</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>24547</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>43517</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D23" s="7">
-        <v>2081</v>
+        <v>24221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>19844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="N23" s="7">
-        <v>2081</v>
+        <v>44065</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>25</v>
@@ -3469,13 +3507,13 @@
         <v>16105</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -3484,13 +3522,13 @@
         <v>10729</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -3499,115 +3537,115 @@
         <v>26834</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>24221</v>
+        <v>2081</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H25" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>19844</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>44065</v>
+        <v>2081</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>18970</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>24547</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="M26" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>43517</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,112 +3701,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D28" s="7">
-        <v>578</v>
+        <v>33863</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="I28" s="7">
-        <v>1467</v>
+        <v>28444</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M28" s="7">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="N28" s="7">
-        <v>2045</v>
+        <v>62308</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="D29" s="7">
-        <v>2696</v>
+        <v>38240</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="I29" s="7">
-        <v>1380</v>
+        <v>36373</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="N29" s="7">
-        <v>4076</v>
+        <v>74613</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>17</v>
@@ -3777,13 +3815,13 @@
         <v>12107</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -3792,13 +3830,13 @@
         <v>9925</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -3807,115 +3845,115 @@
         <v>22032</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>38240</v>
+        <v>2696</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H31" s="7">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>36373</v>
+        <v>1380</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M31" s="7">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="N31" s="7">
-        <v>74613</v>
+        <v>4076</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>33863</v>
+        <v>578</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H32" s="7">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>28444</v>
+        <v>1467</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="M32" s="7">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>62308</v>
+        <v>2045</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,106 +4015,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="D34" s="7">
-        <v>578</v>
+        <v>117222</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H34" s="7">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="I34" s="7">
-        <v>2177</v>
+        <v>108491</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M34" s="7">
-        <v>4</v>
+        <v>337</v>
       </c>
       <c r="N34" s="7">
-        <v>2755</v>
+        <v>225714</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="D35" s="7">
-        <v>6026</v>
+        <v>123500</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H35" s="7">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="I35" s="7">
-        <v>2646</v>
+        <v>125529</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M35" s="7">
-        <v>13</v>
+        <v>371</v>
       </c>
       <c r="N35" s="7">
-        <v>8672</v>
+        <v>249029</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>90</v>
@@ -4085,13 +4123,13 @@
         <v>59632</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H36" s="7">
         <v>72</v>
@@ -4100,13 +4138,13 @@
         <v>47457</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M36" s="7">
         <v>162</v>
@@ -4115,115 +4153,115 @@
         <v>107089</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
+        <v>9</v>
+      </c>
+      <c r="D37" s="7">
+        <v>6026</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H37" s="7">
+        <v>4</v>
+      </c>
+      <c r="I37" s="7">
+        <v>2646</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M37" s="7">
+        <v>13</v>
+      </c>
+      <c r="N37" s="7">
+        <v>8672</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D37" s="7">
-        <v>123500</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H37" s="7">
-        <v>186</v>
-      </c>
-      <c r="I37" s="7">
-        <v>125529</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M37" s="7">
-        <v>371</v>
-      </c>
-      <c r="N37" s="7">
-        <v>249029</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>117222</v>
+        <v>578</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H38" s="7">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>108491</v>
+        <v>2177</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M38" s="7">
-        <v>337</v>
+        <v>4</v>
       </c>
       <c r="N38" s="7">
-        <v>225714</v>
+        <v>2755</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,6 +4313,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4295,8 +4338,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3565EA1-D62A-47DB-B617-F9658AD632E9}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA25AAC-267C-4E00-BBDB-B1680E835C0C}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4312,7 +4355,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4413,106 +4456,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3656</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>4339</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>7995</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10122</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4507</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M5" s="7">
         <v>16</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>14629</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -4521,13 +4564,13 @@
         <v>712</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4536,13 +4579,13 @@
         <v>2429</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -4551,115 +4594,115 @@
         <v>3141</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>10122</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>4507</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>14629</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>3656</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>4339</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>7995</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,106 +4764,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>21999</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>19946</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>41944</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D11" s="7">
-        <v>1313</v>
+        <v>28178</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>23694</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="N11" s="7">
-        <v>1313</v>
+        <v>51872</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>7</v>
@@ -4829,13 +4872,13 @@
         <v>4715</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -4844,13 +4887,13 @@
         <v>6446</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -4859,115 +4902,115 @@
         <v>11161</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>28178</v>
+        <v>1313</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>23694</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>51872</v>
+        <v>1313</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>21999</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>19946</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>41944</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,106 +5072,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>39180</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>36221</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>75401</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>35224</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>43084</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>78309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>28</v>
@@ -5137,13 +5180,13 @@
         <v>18866</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -5152,13 +5195,13 @@
         <v>13500</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -5167,115 +5210,115 @@
         <v>32366</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>35224</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>43084</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="M19" s="7">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>78309</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>41</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>39180</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>36221</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>75401</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>41</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,106 +5380,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>32392</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I22" s="7">
-        <v>595</v>
+        <v>20054</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="N22" s="7">
-        <v>595</v>
+        <v>52446</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>200</v>
+        <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>207</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D23" s="7">
-        <v>1187</v>
+        <v>25308</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>337</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>32966</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="N23" s="7">
-        <v>1187</v>
+        <v>58275</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>343</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
@@ -5445,13 +5488,13 @@
         <v>6756</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -5460,13 +5503,13 @@
         <v>9185</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -5475,115 +5518,115 @@
         <v>15942</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1187</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="7">
-        <v>25308</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H25" s="7">
-        <v>51</v>
-      </c>
-      <c r="I25" s="7">
-        <v>32966</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>344</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="M25" s="7">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>58275</v>
+        <v>1187</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>346</v>
+        <v>226</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>347</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>32392</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>350</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H26" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>20054</v>
+        <v>595</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>230</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>52446</v>
+        <v>595</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>234</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,112 +5682,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>24470</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>361</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>362</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>25239</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>364</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>365</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>49709</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>367</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D29" s="7">
-        <v>3615</v>
+        <v>45544</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>50</v>
+        <v>371</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="I29" s="7">
-        <v>768</v>
+        <v>38179</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>11</v>
+        <v>374</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="M29" s="7">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="N29" s="7">
-        <v>4383</v>
+        <v>83723</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>264</v>
+        <v>376</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>15</v>
@@ -5753,13 +5796,13 @@
         <v>10790</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -5768,13 +5811,13 @@
         <v>13511</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -5783,115 +5826,115 @@
         <v>24301</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D31" s="7">
-        <v>45544</v>
+        <v>3615</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="H31" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>38179</v>
+        <v>768</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>378</v>
+        <v>41</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="M31" s="7">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="N31" s="7">
-        <v>83723</v>
+        <v>4383</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>380</v>
+        <v>294</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>24470</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>383</v>
+        <v>41</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>384</v>
+        <v>42</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>193</v>
+        <v>394</v>
       </c>
       <c r="H32" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>25239</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>386</v>
+        <v>42</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M32" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>49709</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>389</v>
+        <v>42</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>390</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,106 +5996,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>121697</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>11</v>
+        <v>396</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>12</v>
+        <v>397</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="I34" s="7">
-        <v>595</v>
+        <v>105799</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>124</v>
+        <v>401</v>
       </c>
       <c r="M34" s="7">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="N34" s="7">
-        <v>595</v>
+        <v>227495</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>403</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="D35" s="7">
-        <v>6115</v>
+        <v>144376</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>395</v>
+        <v>33</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="I35" s="7">
-        <v>768</v>
+        <v>142431</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>408</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="M35" s="7">
-        <v>10</v>
+        <v>413</v>
       </c>
       <c r="N35" s="7">
-        <v>6883</v>
+        <v>286807</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>197</v>
+        <v>410</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>62</v>
@@ -6061,13 +6104,13 @@
         <v>41840</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="H36" s="7">
         <v>64</v>
@@ -6076,13 +6119,13 @@
         <v>45071</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="M36" s="7">
         <v>126</v>
@@ -6091,115 +6134,115 @@
         <v>86911</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="D37" s="7">
-        <v>144376</v>
+        <v>6115</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>412</v>
+        <v>226</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="H37" s="7">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="I37" s="7">
-        <v>142431</v>
+        <v>768</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>415</v>
+        <v>41</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="M37" s="7">
-        <v>413</v>
+        <v>10</v>
       </c>
       <c r="N37" s="7">
-        <v>286807</v>
+        <v>6883</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D38" s="7">
-        <v>121697</v>
+        <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>420</v>
+        <v>41</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>421</v>
+        <v>42</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="H38" s="7">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>105799</v>
+        <v>595</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>424</v>
+        <v>41</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="M38" s="7">
-        <v>327</v>
+        <v>1</v>
       </c>
       <c r="N38" s="7">
-        <v>227495</v>
+        <v>595</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6251,6 +6294,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -6271,8 +6319,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0823487-A839-4251-AD3F-2FC92FA89CFD}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484EF5DB-3AA0-495C-9741-D383C944822B}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6288,7 +6336,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6389,106 +6437,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>1107</v>
+        <v>5289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>436</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>7171</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>438</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>439</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>440</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>1107</v>
+        <v>12460</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>562</v>
+        <v>4406</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>445</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>3514</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>447</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>448</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>449</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>562</v>
+        <v>7920</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>451</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -6497,13 +6545,13 @@
         <v>1842</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6512,13 +6560,13 @@
         <v>1015</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6527,115 +6575,115 @@
         <v>2857</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>443</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>4406</v>
+        <v>562</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>445</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3514</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>447</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>448</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>449</v>
+        <v>265</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>7920</v>
+        <v>562</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>451</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>5289</v>
+        <v>1107</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>454</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>7171</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>456</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>457</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>458</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>12460</v>
+        <v>1107</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>460</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,106 +6745,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>678</v>
+        <v>20512</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>468</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>469</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>23992</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>470</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>471</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>472</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>678</v>
+        <v>44504</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>474</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>727</v>
+        <v>26187</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>477</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>23504</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>479</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>93</v>
+        <v>481</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>727</v>
+        <v>49691</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>482</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>483</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>10</v>
@@ -6805,13 +6853,13 @@
         <v>7539</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -6820,13 +6868,13 @@
         <v>8785</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>472</v>
+        <v>293</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -6835,115 +6883,115 @@
         <v>16324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>474</v>
+        <v>316</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>26187</v>
+        <v>727</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>477</v>
+        <v>425</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>478</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>23504</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>480</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>481</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="M13" s="7">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>49691</v>
+        <v>727</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>484</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>485</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>20512</v>
+        <v>678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>487</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>488</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>23992</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>489</v>
+        <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>490</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M14" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>44504</v>
+        <v>678</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>493</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,106 +7053,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>44304</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>497</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>498</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="I16" s="7">
-        <v>2853</v>
+        <v>41951</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="N16" s="7">
-        <v>2853</v>
+        <v>86255</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>503</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D17" s="7">
-        <v>1956</v>
+        <v>43861</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="I17" s="7">
-        <v>1166</v>
+        <v>35968</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>509</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="N17" s="7">
-        <v>3122</v>
+        <v>79829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>17</v>
@@ -7113,13 +7161,13 @@
         <v>11968</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -7128,13 +7176,13 @@
         <v>14794</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>370</v>
+        <v>518</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -7143,115 +7191,115 @@
         <v>26763</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>43861</v>
+        <v>1956</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="H19" s="7">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>35968</v>
+        <v>1166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>520</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="M19" s="7">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>79829</v>
+        <v>3122</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>44304</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>525</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>526</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H20" s="7">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>41951</v>
+        <v>2853</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>529</v>
+        <v>79</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>485</v>
+        <v>533</v>
       </c>
       <c r="M20" s="7">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>86255</v>
+        <v>2853</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,106 +7361,106 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>33737</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>537</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I22" s="7">
-        <v>646</v>
+        <v>29103</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>540</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="N22" s="7">
-        <v>646</v>
+        <v>62841</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>200</v>
+        <v>542</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>310</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>209</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D23" s="7">
-        <v>1789</v>
+        <v>32830</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>209</v>
+        <v>544</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>545</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="H23" s="7">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="I23" s="7">
-        <v>1936</v>
+        <v>32850</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="M23" s="7">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="N23" s="7">
-        <v>3726</v>
+        <v>65680</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>6</v>
@@ -7421,13 +7469,13 @@
         <v>4324</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -7436,13 +7484,13 @@
         <v>4192</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -7451,115 +7499,115 @@
         <v>8516</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>32830</v>
+        <v>1789</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>553</v>
+        <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="H25" s="7">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>32850</v>
+        <v>1936</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>378</v>
+        <v>565</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="M25" s="7">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>65680</v>
+        <v>3726</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>558</v>
+        <v>390</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>33737</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>560</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="H26" s="7">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>29103</v>
+        <v>646</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>563</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="M26" s="7">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>62841</v>
+        <v>646</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>565</v>
+        <v>234</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>566</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,112 +7663,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>36931</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>573</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>574</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>35998</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>576</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>577</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>72929</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>579</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>580</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>52</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>43637</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>582</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>583</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>47191</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>585</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>586</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>90829</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>588</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>589</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>52</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>24</v>
@@ -7729,13 +7777,13 @@
         <v>17477</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="H30" s="7">
         <v>27</v>
@@ -7744,13 +7792,13 @@
         <v>19971</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="M30" s="7">
         <v>51</v>
@@ -7759,115 +7807,115 @@
         <v>37448</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>43637</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>579</v>
+        <v>41</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>580</v>
+        <v>42</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="H31" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>47191</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="M31" s="7">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>90829</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>583</v>
+        <v>41</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>584</v>
+        <v>42</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>585</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>36931</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>586</v>
+        <v>41</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>587</v>
+        <v>42</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>557</v>
+        <v>599</v>
       </c>
       <c r="H32" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>35998</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>588</v>
+        <v>41</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>589</v>
+        <v>42</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="M32" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>72929</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>591</v>
+        <v>41</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>592</v>
+        <v>42</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>593</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7929,106 +7977,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="D34" s="7">
-        <v>1785</v>
+        <v>140773</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>602</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="H34" s="7">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="I34" s="7">
-        <v>3499</v>
+        <v>138215</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="M34" s="7">
-        <v>7</v>
+        <v>390</v>
       </c>
       <c r="N34" s="7">
-        <v>5284</v>
+        <v>278989</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>163</v>
+        <v>607</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>92</v>
+        <v>608</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="D35" s="7">
-        <v>5034</v>
+        <v>150921</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>602</v>
+        <v>373</v>
       </c>
       <c r="H35" s="7">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="I35" s="7">
-        <v>3103</v>
+        <v>143028</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>205</v>
+        <v>612</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="M35" s="7">
-        <v>12</v>
+        <v>409</v>
       </c>
       <c r="N35" s="7">
-        <v>8137</v>
+        <v>293949</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>606</v>
+        <v>511</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>59</v>
@@ -8037,13 +8085,13 @@
         <v>43150</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="H36" s="7">
         <v>71</v>
@@ -8052,13 +8100,13 @@
         <v>48758</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="M36" s="7">
         <v>130</v>
@@ -8067,115 +8115,115 @@
         <v>91908</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>207</v>
+        <v>7</v>
       </c>
       <c r="D37" s="7">
-        <v>150921</v>
+        <v>5034</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>617</v>
+        <v>529</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>618</v>
+        <v>564</v>
       </c>
       <c r="H37" s="7">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="I37" s="7">
-        <v>143028</v>
+        <v>3103</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>619</v>
+        <v>226</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>241</v>
+        <v>428</v>
       </c>
       <c r="M37" s="7">
-        <v>409</v>
+        <v>12</v>
       </c>
       <c r="N37" s="7">
-        <v>293949</v>
+        <v>8137</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>622</v>
+        <v>79</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>78</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
-        <v>194</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>140773</v>
+        <v>1785</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>624</v>
+        <v>41</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="H38" s="7">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="I38" s="7">
-        <v>138215</v>
+        <v>3499</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="M38" s="7">
-        <v>390</v>
+        <v>7</v>
       </c>
       <c r="N38" s="7">
-        <v>278989</v>
+        <v>5284</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>306</v>
+        <v>635</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>629</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8227,6 +8275,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C10-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A1A5B8A-80AB-445A-800D-84ADABE6E81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E38EBCC7-8318-4C8D-9337-E6039B61B74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7AE09A6-BBD4-40E0-B8F8-1FC776481E05}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{220BF50B-89D4-448F-98A8-696EADFFFF71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="628">
   <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2007 (Tasa respuesta: 42,16%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Muchísimo</t>
@@ -76,28 +76,28 @@
     <t>51,34%</t>
   </si>
   <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
   </si>
   <si>
     <t>33,96%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
   </si>
   <si>
     <t>42,36%</t>
   </si>
   <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -106,1735 +106,1711 @@
     <t>28,77%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
   </si>
   <si>
     <t>47,0%</t>
   </si>
   <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 41,78%)</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2016 (Tasa respuesta: 44,59%)</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 41,78%)</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
   </si>
   <si>
     <t>50,85%</t>
   </si>
   <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2015 (Tasa respuesta: 44,59%)</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
     <t>17,83%</t>
   </si>
   <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
   </si>
   <si>
     <t>19,36%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
   </si>
   <si>
     <t>18,61%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
   </si>
   <si>
     <t>1,43%</t>
@@ -1846,106 +1822,106 @@
     <t>41,2%</t>
   </si>
   <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
   </si>
   <si>
     <t>41,13%</t>
   </si>
   <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
   </si>
   <si>
     <t>44,17%</t>
   </si>
   <si>
-    <t>40,14%</t>
+    <t>48,55%</t>
   </si>
   <si>
     <t>42,49%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
   </si>
   <si>
     <t>43,34%</t>
   </si>
   <si>
-    <t>46,63%</t>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
 </sst>
 </file>
@@ -2357,7 +2333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6FB926-892F-4696-B99E-B8AC6E0D8B86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F073566-B912-4C0E-AC51-FB6029E1999E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2858,10 +2834,10 @@
         <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>61</v>
@@ -2870,13 +2846,13 @@
         <v>40983</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2867,13 @@
         <v>13355</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -2906,13 +2882,13 @@
         <v>8519</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -2921,13 +2897,13 @@
         <v>21874</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,7 +2924,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -2957,13 +2933,13 @@
         <v>635</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2972,13 +2948,13 @@
         <v>635</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,7 +2975,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3008,13 +2984,13 @@
         <v>710</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3023,13 +2999,13 @@
         <v>710</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,7 +3061,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3097,13 +3073,13 @@
         <v>38600</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -3112,13 +3088,13 @@
         <v>36117</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -3127,13 +3103,13 @@
         <v>74718</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3124,13 @@
         <v>35293</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -3163,13 +3139,13 @@
         <v>44213</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -3178,13 +3154,13 @@
         <v>79506</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3175,13 @@
         <v>15584</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -3214,13 +3190,13 @@
         <v>15743</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -3229,13 +3205,13 @@
         <v>31328</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3226,13 @@
         <v>1249</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3265,13 +3241,13 @@
         <v>630</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3280,13 +3256,13 @@
         <v>1879</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,7 +3283,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3322,7 +3298,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3337,7 +3313,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,7 +3369,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3405,13 +3381,13 @@
         <v>18970</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>39</v>
@@ -3420,13 +3396,13 @@
         <v>24547</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -3435,13 +3411,13 @@
         <v>43517</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3432,13 @@
         <v>24221</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -3471,13 +3447,13 @@
         <v>19844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="M23" s="7">
         <v>72</v>
@@ -3486,13 +3462,13 @@
         <v>44065</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3483,13 @@
         <v>16105</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -3522,13 +3498,13 @@
         <v>10729</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M24" s="7">
         <v>43</v>
@@ -3537,13 +3513,13 @@
         <v>26834</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3534,13 @@
         <v>2081</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3579,7 +3555,7 @@
         <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -3588,13 +3564,13 @@
         <v>2081</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,7 +3591,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3630,7 +3606,7 @@
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3645,7 +3621,7 @@
         <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,7 +3677,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3713,13 +3689,13 @@
         <v>33863</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>37</v>
@@ -3728,13 +3704,13 @@
         <v>28444</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>87</v>
@@ -3743,13 +3719,13 @@
         <v>62308</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3740,13 @@
         <v>38240</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -3779,13 +3755,13 @@
         <v>36373</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>102</v>
@@ -3794,13 +3770,13 @@
         <v>74613</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3791,13 @@
         <v>12107</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -3830,13 +3806,13 @@
         <v>9925</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -3845,13 +3821,13 @@
         <v>22032</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,13 +3842,13 @@
         <v>2696</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -3881,13 +3857,13 @@
         <v>1380</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -3896,13 +3872,13 @@
         <v>4076</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,13 +3893,13 @@
         <v>578</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -3932,13 +3908,13 @@
         <v>1467</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -3947,13 +3923,13 @@
         <v>2045</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,10 +4000,10 @@
         <v>27</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H34" s="7">
         <v>160</v>
@@ -4036,13 +4012,13 @@
         <v>108491</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M34" s="7">
         <v>337</v>
@@ -4051,13 +4027,13 @@
         <v>225714</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4048,13 @@
         <v>123500</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H35" s="7">
         <v>186</v>
@@ -4087,13 +4063,13 @@
         <v>125529</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M35" s="7">
         <v>371</v>
@@ -4102,13 +4078,13 @@
         <v>249029</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4099,13 @@
         <v>59632</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H36" s="7">
         <v>72</v>
@@ -4138,13 +4114,13 @@
         <v>47457</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M36" s="7">
         <v>162</v>
@@ -4153,13 +4129,13 @@
         <v>107089</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4150,13 @@
         <v>6026</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -4189,13 +4165,13 @@
         <v>2646</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M37" s="7">
         <v>13</v>
@@ -4204,10 +4180,10 @@
         <v>8672</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>228</v>
@@ -4338,7 +4314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA25AAC-267C-4E00-BBDB-B1680E835C0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E244CB-0F63-4B38-9A1A-D93A1A804BFD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4800,13 +4776,13 @@
         <v>41944</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4797,13 @@
         <v>28178</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -4836,13 +4812,13 @@
         <v>23694</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>74</v>
@@ -4851,13 +4827,13 @@
         <v>51872</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4848,13 @@
         <v>4715</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -4887,13 +4863,13 @@
         <v>6446</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -4902,13 +4878,13 @@
         <v>11161</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4899,13 @@
         <v>1313</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4944,7 +4920,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4953,13 +4929,13 @@
         <v>1313</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,7 +4956,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4995,7 +4971,7 @@
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5010,7 +4986,7 @@
         <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,7 +5042,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5078,13 +5054,13 @@
         <v>39180</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -5093,10 +5069,10 @@
         <v>36221</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>302</v>
@@ -5374,7 +5350,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5407,7 +5383,7 @@
         <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>332</v>
+        <v>200</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -5416,13 +5392,13 @@
         <v>52446</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,13 +5413,13 @@
         <v>25308</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -5452,13 +5428,13 @@
         <v>32966</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M23" s="7">
         <v>93</v>
@@ -5467,13 +5443,13 @@
         <v>58275</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5464,13 @@
         <v>6756</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -5503,13 +5479,13 @@
         <v>9185</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -5518,13 +5494,13 @@
         <v>15942</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5515,13 @@
         <v>1187</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5560,7 +5536,7 @@
         <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5569,13 +5545,13 @@
         <v>1187</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,7 +5572,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5611,7 +5587,7 @@
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5626,7 +5602,7 @@
         <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,7 +5658,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5694,13 +5670,13 @@
         <v>24470</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -5709,13 +5685,13 @@
         <v>25239</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M28" s="7">
         <v>66</v>
@@ -5724,13 +5700,13 @@
         <v>49709</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,13 +5721,13 @@
         <v>45544</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H29" s="7">
         <v>49</v>
@@ -5760,13 +5736,13 @@
         <v>38179</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M29" s="7">
         <v>112</v>
@@ -5775,13 +5751,13 @@
         <v>83723</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5772,13 @@
         <v>10790</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -5814,10 +5790,10 @@
         <v>321</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M30" s="7">
         <v>32</v>
@@ -5826,13 +5802,13 @@
         <v>24301</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5823,13 @@
         <v>3615</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -5862,13 +5838,13 @@
         <v>768</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -5877,13 +5853,13 @@
         <v>4383</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,7 +5880,7 @@
         <v>42</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5919,7 +5895,7 @@
         <v>42</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5934,7 +5910,7 @@
         <v>42</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>224</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +5978,13 @@
         <v>121697</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H34" s="7">
         <v>151</v>
@@ -6017,13 +5993,13 @@
         <v>105799</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M34" s="7">
         <v>327</v>
@@ -6032,13 +6008,13 @@
         <v>227495</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6029,13 @@
         <v>144376</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>33</v>
+        <v>403</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>405</v>
+        <v>63</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H35" s="7">
         <v>203</v>
@@ -6068,13 +6044,13 @@
         <v>142431</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M35" s="7">
         <v>413</v>
@@ -6083,13 +6059,13 @@
         <v>286807</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6080,13 @@
         <v>41840</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>413</v>
+        <v>322</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>414</v>
+        <v>44</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H36" s="7">
         <v>64</v>
@@ -6119,13 +6095,13 @@
         <v>45071</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>418</v>
+        <v>34</v>
       </c>
       <c r="M36" s="7">
         <v>126</v>
@@ -6134,13 +6110,13 @@
         <v>86911</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6131,13 @@
         <v>6115</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6170,13 +6146,13 @@
         <v>768</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M37" s="7">
         <v>10</v>
@@ -6185,13 +6161,13 @@
         <v>6883</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,7 +6188,7 @@
         <v>42</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6221,13 +6197,13 @@
         <v>595</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -6236,13 +6212,13 @@
         <v>595</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,7 +6295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484EF5DB-3AA0-495C-9741-D383C944822B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCABDF3-FCEA-4468-A970-1EF86936148D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6336,7 +6312,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6443,13 +6419,13 @@
         <v>5289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -6458,13 +6434,13 @@
         <v>7171</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -6473,13 +6449,13 @@
         <v>12460</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,13 +6470,13 @@
         <v>4406</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6509,13 +6485,13 @@
         <v>3514</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -6524,13 +6500,13 @@
         <v>7920</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6521,13 @@
         <v>1842</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6560,13 +6536,13 @@
         <v>1015</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>456</v>
+        <v>133</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6575,13 +6551,13 @@
         <v>2857</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>245</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,13 +6572,13 @@
         <v>562</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6626,13 +6602,13 @@
         <v>562</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,13 +6623,13 @@
         <v>1107</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6677,13 +6653,13 @@
         <v>1107</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6727,13 @@
         <v>20512</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -6766,13 +6742,13 @@
         <v>23992</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -6781,13 +6757,13 @@
         <v>44504</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>475</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6778,13 @@
         <v>26187</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -6817,13 +6793,13 @@
         <v>23504</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="M11" s="7">
         <v>65</v>
@@ -6832,13 +6808,13 @@
         <v>49691</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>482</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>483</v>
+        <v>397</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,13 +6829,13 @@
         <v>7539</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>487</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -6868,13 +6844,13 @@
         <v>8785</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>293</v>
+        <v>480</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -6883,13 +6859,13 @@
         <v>16324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>316</v>
+        <v>482</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>490</v>
+        <v>147</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,13 +6880,13 @@
         <v>727</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>425</v>
+        <v>484</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6925,7 +6901,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -6934,13 +6910,13 @@
         <v>727</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,13 +6931,13 @@
         <v>678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>489</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6976,7 +6952,7 @@
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -6985,13 +6961,13 @@
         <v>678</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7047,7 +7023,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7059,13 +7035,13 @@
         <v>44304</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -7074,13 +7050,13 @@
         <v>41951</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>495</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="M16" s="7">
         <v>128</v>
@@ -7089,13 +7065,13 @@
         <v>86255</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7086,13 @@
         <v>43861</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -7125,13 +7101,13 @@
         <v>35968</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="M17" s="7">
         <v>117</v>
@@ -7140,13 +7116,13 @@
         <v>79829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>512</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7137,13 @@
         <v>11968</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -7176,13 +7152,13 @@
         <v>14794</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -7191,13 +7167,13 @@
         <v>26763</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,13 +7188,13 @@
         <v>1956</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -7227,13 +7203,13 @@
         <v>1166</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -7242,13 +7218,13 @@
         <v>3122</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,7 +7245,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -7278,13 +7254,13 @@
         <v>2853</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -7293,13 +7269,13 @@
         <v>2853</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,7 +7331,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7370,10 +7346,10 @@
         <v>309</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -7382,13 +7358,13 @@
         <v>29103</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M22" s="7">
         <v>93</v>
@@ -7397,13 +7373,13 @@
         <v>62841</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>310</v>
+        <v>537</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,13 +7394,13 @@
         <v>32830</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>545</v>
+        <v>493</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="H23" s="7">
         <v>50</v>
@@ -7433,13 +7409,13 @@
         <v>32850</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>548</v>
+        <v>310</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="M23" s="7">
         <v>95</v>
@@ -7448,13 +7424,13 @@
         <v>65680</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7469,13 +7445,13 @@
         <v>4324</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -7484,13 +7460,13 @@
         <v>4192</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -7499,13 +7475,13 @@
         <v>8516</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7520,13 +7496,13 @@
         <v>1789</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -7535,13 +7511,13 @@
         <v>1936</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -7550,13 +7526,13 @@
         <v>3726</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,7 +7553,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7586,13 +7562,13 @@
         <v>646</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -7607,7 +7583,7 @@
         <v>41</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7663,7 +7639,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7675,13 +7651,13 @@
         <v>36931</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="H28" s="7">
         <v>45</v>
@@ -7690,13 +7666,13 @@
         <v>35998</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="M28" s="7">
         <v>94</v>
@@ -7705,13 +7681,13 @@
         <v>72929</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7702,13 @@
         <v>43637</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="H29" s="7">
         <v>62</v>
@@ -7741,13 +7717,13 @@
         <v>47191</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>586</v>
+        <v>133</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="M29" s="7">
         <v>122</v>
@@ -7756,13 +7732,13 @@
         <v>90829</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>499</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7777,13 +7753,13 @@
         <v>17477</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="H30" s="7">
         <v>27</v>
@@ -7792,13 +7768,13 @@
         <v>19971</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="M30" s="7">
         <v>51</v>
@@ -7807,13 +7783,13 @@
         <v>37448</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7834,7 +7810,7 @@
         <v>42</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7849,7 +7825,7 @@
         <v>42</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -7864,7 +7840,7 @@
         <v>42</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,7 +7861,7 @@
         <v>42</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7900,7 +7876,7 @@
         <v>42</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7915,7 +7891,7 @@
         <v>42</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7983,13 +7959,13 @@
         <v>140773</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>602</v>
+        <v>503</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>603</v>
+        <v>97</v>
       </c>
       <c r="H34" s="7">
         <v>196</v>
@@ -7998,13 +7974,13 @@
         <v>138215</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="M34" s="7">
         <v>390</v>
@@ -8013,13 +7989,13 @@
         <v>278989</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8034,13 +8010,13 @@
         <v>150921</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>611</v>
+        <v>544</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>373</v>
+        <v>601</v>
       </c>
       <c r="H35" s="7">
         <v>202</v>
@@ -8049,13 +8025,13 @@
         <v>143028</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="M35" s="7">
         <v>409</v>
@@ -8064,13 +8040,13 @@
         <v>293949</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>511</v>
+        <v>606</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8085,13 +8061,13 @@
         <v>43150</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="H36" s="7">
         <v>71</v>
@@ -8100,13 +8076,13 @@
         <v>48758</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="M36" s="7">
         <v>130</v>
@@ -8115,13 +8091,13 @@
         <v>91908</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8112,13 @@
         <v>5034</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>625</v>
+        <v>420</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>529</v>
+        <v>616</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>564</v>
+        <v>617</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -8151,13 +8127,13 @@
         <v>3103</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>428</v>
+        <v>619</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -8166,13 +8142,13 @@
         <v>8137</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>79</v>
+        <v>621</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8187,13 +8163,13 @@
         <v>1785</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>629</v>
+        <v>35</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="H38" s="7">
         <v>5</v>
@@ -8202,13 +8178,13 @@
         <v>3499</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -8217,13 +8193,13 @@
         <v>5284</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>634</v>
+        <v>183</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
